--- a/Files/Printer__IO_Architecture.xlsx
+++ b/Files/Printer__IO_Architecture.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA221D-C9D2-4567-BB91-D8105E5F0BC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089AFC7-B26E-4742-B137-45E17AD131C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40620" yWindow="1215" windowWidth="16215" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlBoxIO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -210,16 +210,57 @@
   </si>
   <si>
     <t>EO2</t>
+  </si>
+  <si>
+    <t>Connector Sources:</t>
+  </si>
+  <si>
+    <t>allhide</t>
+  </si>
+  <si>
+    <t>d-sub</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/XLX-Connectors-Complete-Connector-Assortment/dp/B076HPV4WJ/ref=sr_1_19?keywords=dsub+connector&amp;qid=1565120473&amp;s=gateway&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>DB(z)</t>
+  </si>
+  <si>
+    <t>DB(x)</t>
+  </si>
+  <si>
+    <t>DB(y)</t>
+  </si>
+  <si>
+    <t>E-motor</t>
+  </si>
+  <si>
+    <t>DB(E)</t>
+  </si>
+  <si>
+    <t>4-pin cpc</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-AMP/206430-1?qs=sGAEpiMZZMvG94qpybaIZbTrHKt3B0oIFvpivY9XDHE%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,10 +400,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,11 +426,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -411,12 +461,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -431,14 +475,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7D0F748-ECBA-441C-B35A-9BE7D7F083AE}" name="Table1" displayName="Table1" ref="A1:F49" totalsRowShown="0">
-  <autoFilter ref="A1:F49" xr:uid="{54AE7EB4-B000-4EFF-AEBE-25BEB4680CC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7D0F748-ECBA-441C-B35A-9BE7D7F083AE}" name="Table1" displayName="Table1" ref="A1:F53" totalsRowShown="0">
+  <autoFilter ref="A1:F53" xr:uid="{54AE7EB4-B000-4EFF-AEBE-25BEB4680CC6}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{CAE91545-170A-482C-8235-A0590A151C99}" name="Source" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{8729C627-55F1-4CB1-BF1E-ADDB1870D91C}" name="Destination" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{CAE91545-170A-482C-8235-A0590A151C99}" name="Source" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8729C627-55F1-4CB1-BF1E-ADDB1870D91C}" name="Destination" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{8326155D-7EB8-46EA-A91A-737AB07CC3BC}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{1674606F-67C6-434B-A434-03EF7D6680E5}" name="Signal Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{303D3273-D42A-4050-9EE4-826BF1A32E34}" name="Connector Type" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1674606F-67C6-434B-A434-03EF7D6680E5}" name="Signal Type" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{303D3273-D42A-4050-9EE4-826BF1A32E34}" name="Connector Type" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{035C3005-88C0-4F40-9175-F238610B20EA}" name="Connector Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -708,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,6 +1024,9 @@
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F11"/>
       <c r="H11" s="5">
         <v>9</v>
@@ -999,6 +1046,9 @@
         <v>10</v>
       </c>
       <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F12"/>
       <c r="H12" s="5">
         <v>10</v>
@@ -1018,6 +1068,9 @@
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F13"/>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
@@ -1035,6 +1088,9 @@
         <v>10</v>
       </c>
       <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1046,6 +1102,9 @@
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1057,6 +1116,9 @@
         <v>11</v>
       </c>
       <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1068,6 +1130,9 @@
         <v>11</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F17"/>
       <c r="H17" t="s">
         <v>26</v>
@@ -1082,6 +1147,9 @@
         <v>11</v>
       </c>
       <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F18"/>
       <c r="H18" t="s">
         <v>27</v>
@@ -1096,6 +1164,9 @@
         <v>12</v>
       </c>
       <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F19"/>
       <c r="H19" t="s">
         <v>39</v>
@@ -1110,6 +1181,9 @@
         <v>12</v>
       </c>
       <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F20"/>
       <c r="H20" t="s">
         <v>40</v>
@@ -1124,6 +1198,9 @@
         <v>12</v>
       </c>
       <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,80 +1212,54 @@
         <v>12</v>
       </c>
       <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B23" s="14"/>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F23"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B24" s="14"/>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F24"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B25" s="14"/>
       <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F25"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B26" s="14"/>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F26"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1216,16 +1267,15 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F27"/>
+      <c r="H27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1234,10 +1284,18 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F28"/>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1245,10 +1303,18 @@
       </c>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F29"/>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1256,10 +1322,10 @@
       </c>
       <c r="B30" s="14"/>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
@@ -1274,10 +1340,10 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>30</v>
@@ -1292,209 +1358,292 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1"/>
       <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1"/>
       <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="14"/>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="14"/>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14"/>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="14"/>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
-        <v>59</v>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>59</v>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>60</v>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
-        <v>60</v>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="D48" s="1"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F48"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F49"/>
     </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="D52" s="1"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="D53" s="1"/>
+      <c r="F53"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I33" r:id="rId1" xr:uid="{92A29502-5F10-4817-9DEC-79F6517D0DC3}"/>
+    <hyperlink ref="I34" r:id="rId2" xr:uid="{73EDE81C-0B48-4421-8EF2-EC0EEABB5F9D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
